--- a/API/Files/Employees.xlsx
+++ b/API/Files/Employees.xlsx
@@ -1432,7 +1432,7 @@
   </sheetPr>
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G108" activeCellId="0" sqref="G108"/>
     </sheetView>
   </sheetViews>

--- a/API/Files/Employees.xlsx
+++ b/API/Files/Employees.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">DEPARTMENT_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">IS_MILLENNIAL</t>
+    <t xml:space="preserve">IS_ACTIVE</t>
   </si>
   <si>
     <t xml:space="preserve">Steven</t>
@@ -1432,8 +1432,8 @@
   </sheetPr>
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G108" activeCellId="0" sqref="G108"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
